--- a/selenium-testng-project2/target/credentials.xlsx
+++ b/selenium-testng-project2/target/credentials.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
